--- a/AAII_Financials/Quarterly/DTRC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTRC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/DTRC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTRC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>DTRC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,13 +920,15 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -917,14 +945,14 @@
       <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
@@ -935,14 +963,20 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,37 +1022,43 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>-700</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,37 +1150,39 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>-500</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
@@ -1145,8 +1199,14 @@
       <c r="Q17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,29 +1214,29 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
@@ -1192,8 +1252,14 @@
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,13 +1379,19 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1343,47 +1423,53 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
@@ -1399,8 +1485,14 @@
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,38 +1591,44 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
@@ -1540,38 +1644,44 @@
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
@@ -1587,8 +1697,14 @@
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1822,38 +1962,44 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
@@ -1869,8 +2015,14 @@
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,38 +2068,44 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
@@ -1963,60 +2121,72 @@
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,29 +2225,31 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2083,25 +2257,31 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,23 +2433,29 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2288,13 +2486,19 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
@@ -2306,10 +2510,10 @@
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -2318,25 +2522,31 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,13 +2592,19 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -2429,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>200</v>
+      </c>
+      <c r="S48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,13 +2910,19 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="E54" s="3">
         <v>400</v>
@@ -2682,37 +2934,43 @@
         <v>400</v>
       </c>
       <c r="H54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J54" s="3">
         <v>200</v>
       </c>
       <c r="K54" s="3">
+        <v>300</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
-      </c>
-      <c r="L54" s="3">
-        <v>300</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
       </c>
       <c r="N54" s="3">
+        <v>300</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,63 +3009,71 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="F58" s="3">
         <v>400</v>
@@ -2814,25 +3082,25 @@
         <v>400</v>
       </c>
       <c r="H58" s="3">
+        <v>400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>400</v>
+      </c>
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>700</v>
       </c>
       <c r="L58" s="3">
         <v>700</v>
       </c>
       <c r="M58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O58" s="3">
         <v>800</v>
@@ -2841,10 +3109,16 @@
         <v>800</v>
       </c>
       <c r="Q58" s="3">
+        <v>800</v>
+      </c>
+      <c r="R58" s="3">
+        <v>800</v>
+      </c>
+      <c r="S58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2890,63 +3164,75 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2984,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-4900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-4700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-4500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-4400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-4800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-4700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-4400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-4000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,90 +4086,102 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
@@ -3807,8 +4197,14 @@
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,16 +4536,22 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -4126,7 +4560,7 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -4135,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4155,8 +4589,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,31 +4769,37 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,29 +5161,35 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -4693,21 +5197,27 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTRC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTRC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>DTRC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,17 +935,18 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
@@ -951,32 +965,35 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,19 +1045,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1048,20 +1068,20 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>-700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,40 +1178,41 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,32 +1244,32 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,17 +1422,20 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
@@ -1429,50 +1469,53 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-200</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,41 +1646,44 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-200</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>-100</v>
-      </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
@@ -1650,41 +1702,44 @@
       <c r="S26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-200</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>-100</v>
-      </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,41 +2038,44 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-200</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>-100</v>
-      </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,41 +2150,44 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-200</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>-100</v>
-      </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,32 +2313,33 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2263,25 +2350,28 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2451,13 +2550,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2492,32 +2591,35 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2528,25 +2630,28 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,16 +2703,19 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
         <v>300</v>
-      </c>
-      <c r="E48" s="3">
-        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>200</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
       </c>
       <c r="N54" s="3">
+        <v>200</v>
+      </c>
+      <c r="O54" s="3">
         <v>300</v>
-      </c>
-      <c r="O54" s="3">
-        <v>200</v>
       </c>
       <c r="P54" s="3">
         <v>200</v>
       </c>
       <c r="Q54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
       </c>
       <c r="S54" s="3">
+        <v>300</v>
+      </c>
+      <c r="T54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E57" s="3">
         <v>2300</v>
       </c>
       <c r="F57" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="G57" s="3">
         <v>2100</v>
       </c>
       <c r="H57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2000</v>
       </c>
       <c r="L57" s="3">
         <v>2000</v>
       </c>
       <c r="M57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N57" s="3">
         <v>1900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1400</v>
       </c>
       <c r="S57" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,10 +3207,10 @@
         <v>300</v>
       </c>
       <c r="E58" s="3">
+        <v>300</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>400</v>
       </c>
       <c r="G58" s="3">
         <v>400</v>
@@ -3088,13 +3222,13 @@
         <v>400</v>
       </c>
       <c r="J58" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K58" s="3">
         <v>800</v>
       </c>
       <c r="L58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="M58" s="3">
         <v>700</v>
@@ -3103,7 +3237,7 @@
         <v>700</v>
       </c>
       <c r="O58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="P58" s="3">
         <v>800</v>
@@ -3115,10 +3249,13 @@
         <v>800</v>
       </c>
       <c r="S58" s="3">
+        <v>800</v>
+      </c>
+      <c r="T58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3170,73 +3307,79 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E60" s="3">
         <v>2600</v>
       </c>
       <c r="F60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G60" s="3">
         <v>2500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2400</v>
       </c>
       <c r="H60" s="3">
         <v>2400</v>
       </c>
       <c r="I60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2400</v>
       </c>
       <c r="P60" s="3">
         <v>2400</v>
       </c>
       <c r="Q60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R60" s="3">
         <v>2300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>400</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2400</v>
       </c>
       <c r="H66" s="3">
         <v>2400</v>
       </c>
       <c r="I66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2400</v>
       </c>
       <c r="P66" s="3">
         <v>2400</v>
       </c>
       <c r="Q66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R66" s="3">
         <v>2300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-2000</v>
       </c>
       <c r="H76" s="3">
         <v>-2000</v>
       </c>
       <c r="I76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J76" s="3">
         <v>-1900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-2500</v>
       </c>
       <c r="L76" s="3">
         <v>-2500</v>
       </c>
       <c r="M76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="N76" s="3">
         <v>-2400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-2200</v>
       </c>
       <c r="O76" s="3">
         <v>-2200</v>
       </c>
       <c r="P76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-1900</v>
       </c>
       <c r="S76" s="3">
         <v>-1900</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-1900</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,99 +4281,105 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-200</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>-100</v>
-      </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,20 +4756,23 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
@@ -4566,13 +4783,13 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,16 +5002,19 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-100</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
@@ -4801,8 +5031,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,47 +5304,50 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5109,13 +5355,16 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,32 +5416,35 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -5203,11 +5455,11 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5215,9 +5467,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTRC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTRC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>DTRC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,20 +948,21 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
@@ -968,32 +981,35 @@
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
+      <c r="M12" s="3">
+        <v>0</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,11 +1078,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1071,20 +1090,20 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>-700</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,43 +1204,44 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
@@ -1235,8 +1261,11 @@
       <c r="T17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,35 +1273,35 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
@@ -1291,8 +1320,11 @@
       <c r="T18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1402,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,20 +1461,23 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1472,53 +1511,56 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
@@ -1537,8 +1579,11 @@
       <c r="T23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,44 +1697,47 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-200</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
@@ -1705,44 +1756,47 @@
       <c r="T26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-200</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
@@ -1761,8 +1815,11 @@
       <c r="T27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,44 +2110,47 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-200</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
@@ -2097,8 +2169,11 @@
       <c r="T33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,44 +2228,47 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-200</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
@@ -2209,69 +2287,75 @@
       <c r="T35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,35 +2399,36 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2353,25 +2439,28 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,13 +2633,16 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2553,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2594,35 +2692,38 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2633,25 +2734,28 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,19 +2810,22 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E48" s="3">
         <v>400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>200</v>
       </c>
       <c r="N54" s="3">
         <v>200</v>
       </c>
       <c r="O54" s="3">
+        <v>200</v>
+      </c>
+      <c r="P54" s="3">
         <v>300</v>
-      </c>
-      <c r="P54" s="3">
-        <v>200</v>
       </c>
       <c r="Q54" s="3">
         <v>200</v>
       </c>
       <c r="R54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S54" s="3">
         <v>300</v>
       </c>
       <c r="T54" s="3">
+        <v>300</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,78 +3271,82 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2300</v>
       </c>
       <c r="F57" s="3">
         <v>2300</v>
       </c>
       <c r="G57" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="H57" s="3">
         <v>2100</v>
       </c>
       <c r="I57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2000</v>
       </c>
       <c r="M57" s="3">
         <v>2000</v>
       </c>
       <c r="N57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O57" s="3">
         <v>1900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
-      </c>
-      <c r="S57" s="3">
-        <v>1400</v>
       </c>
       <c r="T57" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
       </c>
       <c r="F58" s="3">
+        <v>300</v>
+      </c>
+      <c r="G58" s="3">
         <v>700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>400</v>
       </c>
       <c r="H58" s="3">
         <v>400</v>
@@ -3225,13 +3358,13 @@
         <v>400</v>
       </c>
       <c r="K58" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="L58" s="3">
         <v>800</v>
       </c>
       <c r="M58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N58" s="3">
         <v>700</v>
@@ -3240,7 +3373,7 @@
         <v>700</v>
       </c>
       <c r="P58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q58" s="3">
         <v>800</v>
@@ -3252,33 +3385,36 @@
         <v>800</v>
       </c>
       <c r="T58" s="3">
+        <v>800</v>
+      </c>
+      <c r="U58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
+        <v>4400</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3310,79 +3446,85 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2600</v>
       </c>
       <c r="F60" s="3">
         <v>2600</v>
       </c>
       <c r="G60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H60" s="3">
         <v>2500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2400</v>
       </c>
       <c r="I60" s="3">
         <v>2400</v>
       </c>
       <c r="J60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2500</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2400</v>
       </c>
       <c r="Q60" s="3">
         <v>2400</v>
       </c>
       <c r="R60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S60" s="3">
         <v>2300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2400</v>
       </c>
       <c r="I66" s="3">
         <v>2400</v>
       </c>
       <c r="J66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
-      </c>
-      <c r="P66" s="3">
-        <v>2400</v>
       </c>
       <c r="Q66" s="3">
         <v>2400</v>
       </c>
       <c r="R66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S66" s="3">
         <v>2300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2200</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-2000</v>
       </c>
       <c r="I76" s="3">
         <v>-2000</v>
       </c>
       <c r="J76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K76" s="3">
         <v>-1900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-2500</v>
       </c>
       <c r="M76" s="3">
         <v>-2500</v>
       </c>
       <c r="N76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="O76" s="3">
         <v>-2400</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-2200</v>
       </c>
       <c r="P76" s="3">
         <v>-2200</v>
       </c>
       <c r="Q76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="R76" s="3">
         <v>-2100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-1900</v>
       </c>
       <c r="T76" s="3">
         <v>-1900</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-1900</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,105 +4472,111 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-200</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
@@ -4401,8 +4595,11 @@
       <c r="T81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,31 +4620,32 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,23 +4972,26 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>-100</v>
-      </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
@@ -4786,13 +5002,13 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,31 +5056,32 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-3500</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,19 +5231,22 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>-100</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -5034,8 +5263,8 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,50 +5549,53 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5358,13 +5603,16 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,35 +5667,38 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -5458,11 +5709,11 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5470,9 +5721,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTRC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTRC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>DTRC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,100 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +816,14 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +881,14 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +946,14 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,25 +975,27 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
-      </c>
-      <c r="E12" s="3">
-        <v>400</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -984,14 +1012,14 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
@@ -1002,14 +1030,20 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,13 +1101,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1081,35 +1121,35 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>-700</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1126,8 +1166,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,16 +1257,18 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>12200</v>
       </c>
       <c r="E17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
@@ -1223,31 +1277,31 @@
         <v>600</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>600</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>-500</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
@@ -1264,8 +1318,14 @@
       <c r="U17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,7 +1333,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
@@ -1282,32 +1342,32 @@
         <v>-600</v>
       </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
@@ -1323,8 +1383,14 @@
       <c r="U18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1412,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1405,19 +1473,25 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-200</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1464,26 +1538,32 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1514,59 +1594,65 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
-      </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
@@ -1582,8 +1668,14 @@
       <c r="U23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,50 +1798,56 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
-      </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
@@ -1759,50 +1863,56 @@
       <c r="U26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
-      </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
@@ -1818,8 +1928,14 @@
       <c r="U27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2188,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2113,50 +2253,56 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
-      </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
@@ -2172,8 +2318,14 @@
       <c r="U33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,50 +2383,56 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
-      </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
@@ -2290,72 +2448,84 @@
       <c r="U35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,41 +2572,43 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1300</v>
+        <v>24900</v>
       </c>
       <c r="E41" s="3">
-        <v>700</v>
+        <v>10400</v>
       </c>
       <c r="F41" s="3">
         <v>1300</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2442,25 +2616,31 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2698,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2763,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,35 +2828,41 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>4500</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2695,25 +2893,31 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F46" s="3">
         <v>5800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
-      </c>
-      <c r="G46" s="3">
-        <v>200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>200</v>
@@ -2725,10 +2929,10 @@
         <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -2737,25 +2941,31 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
         <v>100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>100</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,25 +3023,31 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F48" s="3">
         <v>5300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
@@ -2872,8 +3088,14 @@
       <c r="U48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>200</v>
+      </c>
+      <c r="W48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3153,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3283,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3348,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,25 +3413,31 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>16700</v>
+      </c>
+      <c r="F54" s="3">
         <v>11100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>300</v>
       </c>
       <c r="I54" s="3">
         <v>400</v>
@@ -3197,37 +3449,43 @@
         <v>400</v>
       </c>
       <c r="L54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N54" s="3">
         <v>200</v>
       </c>
       <c r="O54" s="3">
+        <v>300</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
-      </c>
-      <c r="P54" s="3">
-        <v>300</v>
       </c>
       <c r="Q54" s="3">
         <v>200</v>
       </c>
       <c r="R54" s="3">
+        <v>300</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
+        <v>200</v>
+      </c>
+      <c r="U54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,67 +3532,75 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3340,19 +3608,19 @@
         <v>900</v>
       </c>
       <c r="E58" s="3">
+        <v>900</v>
+      </c>
+      <c r="F58" s="3">
+        <v>900</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
-        <v>700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>400</v>
-      </c>
       <c r="I58" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="J58" s="3">
         <v>400</v>
@@ -3361,25 +3629,25 @@
         <v>400</v>
       </c>
       <c r="L58" s="3">
+        <v>400</v>
+      </c>
+      <c r="M58" s="3">
+        <v>400</v>
+      </c>
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>700</v>
       </c>
       <c r="P58" s="3">
         <v>700</v>
       </c>
       <c r="Q58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="R58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="S58" s="3">
         <v>800</v>
@@ -3388,30 +3656,36 @@
         <v>800</v>
       </c>
       <c r="U58" s="3">
+        <v>800</v>
+      </c>
+      <c r="V58" s="3">
+        <v>800</v>
+      </c>
+      <c r="W58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3">
         <v>4400</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -3419,8 +3693,8 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3449,88 +3723,100 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F60" s="3">
         <v>5700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="S60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="T60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="U60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
-        <v>2900</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2800</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2700</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2600</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2500</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>2400</v>
-      </c>
-      <c r="R60" s="3">
-        <v>2400</v>
-      </c>
-      <c r="S60" s="3">
-        <v>2300</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>500</v>
+      </c>
+      <c r="F61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3567,8 +3853,14 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3918,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F66" s="3">
         <v>6300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-5700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-5400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-4900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-4700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-4400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-4600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-4400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-4100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-4000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-3900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-3800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F76" s="3">
         <v>4800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,114 +4853,126 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
-      </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
@@ -4598,8 +4988,14 @@
       <c r="U81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,19 +5017,21 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -4647,11 +5045,11 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4680,8 +5078,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,29 +5403,35 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
@@ -5005,7 +5439,7 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -5014,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -5034,8 +5468,14 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,20 +5497,22 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3500</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5083,11 +5525,11 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5116,8 +5558,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,25 +5688,31 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>-100</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -5266,11 +5726,11 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -5293,8 +5753,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +6038,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F100" s="3">
         <v>9500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,41 +6168,47 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F102" s="3">
         <v>5000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5712,21 +6216,27 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTRC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTRC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>DTRC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,29 +990,30 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E12" s="3">
         <v>2200</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
@@ -1018,32 +1032,35 @@
       <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
+      <c r="P12" s="3">
+        <v>0</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>4</v>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,17 +1124,20 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1127,11 +1147,11 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1139,20 +1159,20 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>-700</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,52 +1285,53 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E17" s="3">
         <v>12200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
@@ -1324,8 +1351,11 @@
       <c r="W17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,44 +1363,44 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>500</v>
       </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,14 +1525,14 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1556,17 +1596,17 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1600,62 +1640,65 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
@@ -1674,8 +1717,11 @@
       <c r="W23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,53 +1853,56 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-200</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
@@ -1869,53 +1921,56 @@
       <c r="W26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-200</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,53 +2329,56 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-200</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,53 +2465,56 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-200</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,44 +2660,45 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E41" s="3">
         <v>24900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2622,25 +2709,28 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2846,11 +2945,11 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>4500</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2858,13 +2957,13 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2899,44 +2998,47 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E46" s="3">
         <v>24900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -2947,25 +3049,28 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
       <c r="U46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V46" s="3">
         <v>100</v>
       </c>
       <c r="W46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,28 +3134,31 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E48" s="3">
         <v>8300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E54" s="3">
         <v>33300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
-      </c>
-      <c r="P54" s="3">
-        <v>200</v>
       </c>
       <c r="Q54" s="3">
         <v>200</v>
       </c>
       <c r="R54" s="3">
+        <v>200</v>
+      </c>
+      <c r="S54" s="3">
         <v>300</v>
-      </c>
-      <c r="S54" s="3">
-        <v>200</v>
       </c>
       <c r="T54" s="3">
         <v>200</v>
       </c>
       <c r="U54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V54" s="3">
         <v>300</v>
       </c>
       <c r="W54" s="3">
+        <v>300</v>
+      </c>
+      <c r="X54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3543,69 +3674,72 @@
         <v>600</v>
       </c>
       <c r="E57" s="3">
+        <v>600</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2300</v>
       </c>
       <c r="I57" s="3">
         <v>2300</v>
       </c>
       <c r="J57" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="K57" s="3">
         <v>2100</v>
       </c>
       <c r="L57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>2000</v>
       </c>
       <c r="P57" s="3">
         <v>2000</v>
       </c>
       <c r="Q57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R57" s="3">
         <v>1900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1500</v>
-      </c>
-      <c r="V57" s="3">
-        <v>1400</v>
       </c>
       <c r="W57" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>900</v>
@@ -3614,16 +3748,16 @@
         <v>900</v>
       </c>
       <c r="G58" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="H58" s="3">
         <v>300</v>
       </c>
       <c r="I58" s="3">
+        <v>300</v>
+      </c>
+      <c r="J58" s="3">
         <v>1000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>400</v>
       </c>
       <c r="K58" s="3">
         <v>400</v>
@@ -3635,13 +3769,13 @@
         <v>400</v>
       </c>
       <c r="N58" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="O58" s="3">
         <v>800</v>
       </c>
       <c r="P58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="Q58" s="3">
         <v>700</v>
@@ -3650,7 +3784,7 @@
         <v>700</v>
       </c>
       <c r="S58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T58" s="3">
         <v>800</v>
@@ -3662,10 +3796,13 @@
         <v>800</v>
       </c>
       <c r="W58" s="3">
+        <v>800</v>
+      </c>
+      <c r="X58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3675,12 +3812,12 @@
       <c r="E59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3">
         <v>4400</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3690,14 +3827,14 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3729,73 +3866,79 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2400</v>
       </c>
       <c r="L60" s="3">
         <v>2400</v>
       </c>
       <c r="M60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2500</v>
-      </c>
-      <c r="S60" s="3">
-        <v>2400</v>
       </c>
       <c r="T60" s="3">
         <v>2400</v>
       </c>
       <c r="U60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V60" s="3">
         <v>2300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3803,23 +3946,23 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="E66" s="3">
         <v>1500</v>
       </c>
       <c r="F66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G66" s="3">
         <v>6300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2400</v>
       </c>
       <c r="L66" s="3">
         <v>2400</v>
       </c>
       <c r="M66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2500</v>
-      </c>
-      <c r="S66" s="3">
-        <v>2400</v>
       </c>
       <c r="T66" s="3">
         <v>2400</v>
       </c>
       <c r="U66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V66" s="3">
         <v>2300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E76" s="3">
         <v>31800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-2000</v>
       </c>
       <c r="L76" s="3">
         <v>-2000</v>
       </c>
       <c r="M76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="N76" s="3">
         <v>-1900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2600</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-2500</v>
       </c>
       <c r="P76" s="3">
         <v>-2500</v>
       </c>
       <c r="Q76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="R76" s="3">
         <v>-2400</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-2200</v>
       </c>
       <c r="S76" s="3">
         <v>-2200</v>
       </c>
       <c r="T76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="U76" s="3">
         <v>-2100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-1900</v>
       </c>
       <c r="W76" s="3">
         <v>-1900</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>-1900</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,123 +5048,129 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-200</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5033,8 +5232,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -5051,8 +5250,8 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,32 +5623,35 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>-100</v>
-      </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
@@ -5445,13 +5662,13 @@
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5508,14 +5729,14 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3500</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5531,8 +5752,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,28 +5921,31 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>-100</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -5732,8 +5962,8 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,59 +6287,62 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E100" s="3">
         <v>16500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>9500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6104,13 +6350,16 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,44 +6423,47 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E102" s="3">
         <v>14500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>4700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -6222,11 +6474,11 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -6234,9 +6486,12 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DTRC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DTRC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>DTRC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,32 +1003,33 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E12" s="3">
         <v>1900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2200</v>
-      </c>
-      <c r="F12" s="3">
-        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
       </c>
       <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
@@ -1035,32 +1048,35 @@
       <c r="P12" s="3">
         <v>0</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
+      <c r="Q12" s="3">
+        <v>0</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>4</v>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,11 +1155,11 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1150,11 +1169,11 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1162,20 +1181,20 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>-700</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,55 +1311,56 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E17" s="3">
         <v>5000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
@@ -1354,8 +1380,11 @@
       <c r="X17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,47 +1392,47 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-12200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>500</v>
       </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
@@ -1422,8 +1451,11 @@
       <c r="X18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,8 +1549,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,17 +1561,17 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-12200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1584,8 +1620,11 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1599,17 +1638,17 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1643,65 +1682,68 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-200</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
@@ -1720,8 +1762,11 @@
       <c r="X23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,56 +1904,59 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-200</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
@@ -1924,56 +1975,59 @@
       <c r="X26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-200</v>
       </c>
       <c r="L27" s="3">
         <v>-200</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
@@ -1992,8 +2046,11 @@
       <c r="X27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,56 +2401,59 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-200</v>
       </c>
       <c r="L33" s="3">
         <v>-200</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
@@ -2400,8 +2472,11 @@
       <c r="X33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,56 +2543,59 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-200</v>
       </c>
       <c r="L35" s="3">
         <v>-200</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
@@ -2536,81 +2614,87 @@
       <c r="X35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,47 +2746,48 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E41" s="3">
         <v>52200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>24900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2712,25 +2798,28 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
         <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,13 +3028,16 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
@@ -2948,11 +3046,11 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>4500</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -2960,13 +3058,13 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3001,47 +3099,50 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E46" s="3">
         <v>52400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>24900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -3052,25 +3153,28 @@
         <v>0</v>
       </c>
       <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
         <v>100</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
       <c r="V46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W46" s="3">
         <v>100</v>
       </c>
       <c r="X46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,31 +3241,34 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E48" s="3">
         <v>16700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>68500</v>
+      </c>
+      <c r="E54" s="3">
         <v>69000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>200</v>
       </c>
       <c r="R54" s="3">
         <v>200</v>
       </c>
       <c r="S54" s="3">
+        <v>200</v>
+      </c>
+      <c r="T54" s="3">
         <v>300</v>
-      </c>
-      <c r="T54" s="3">
-        <v>200</v>
       </c>
       <c r="U54" s="3">
         <v>200</v>
       </c>
       <c r="V54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W54" s="3">
         <v>300</v>
       </c>
       <c r="X54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3677,64 +3807,67 @@
         <v>600</v>
       </c>
       <c r="F57" s="3">
+        <v>600</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2300</v>
       </c>
       <c r="J57" s="3">
         <v>2300</v>
       </c>
       <c r="K57" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="L57" s="3">
         <v>2100</v>
       </c>
       <c r="M57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>2000</v>
       </c>
       <c r="Q57" s="3">
         <v>2000</v>
       </c>
       <c r="R57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S57" s="3">
         <v>1900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1500</v>
-      </c>
-      <c r="W57" s="3">
-        <v>1400</v>
       </c>
       <c r="X57" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3742,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>900</v>
@@ -3751,16 +3884,16 @@
         <v>900</v>
       </c>
       <c r="H58" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>
       </c>
       <c r="J58" s="3">
+        <v>300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>400</v>
       </c>
       <c r="L58" s="3">
         <v>400</v>
@@ -3772,13 +3905,13 @@
         <v>400</v>
       </c>
       <c r="O58" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="P58" s="3">
         <v>800</v>
       </c>
       <c r="Q58" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="R58" s="3">
         <v>700</v>
@@ -3787,7 +3920,7 @@
         <v>700</v>
       </c>
       <c r="T58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="U58" s="3">
         <v>800</v>
@@ -3799,10 +3932,13 @@
         <v>800</v>
       </c>
       <c r="X58" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y58" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3815,12 +3951,12 @@
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
         <v>4400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3830,14 +3966,14 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3869,8 +4005,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3878,67 +4017,70 @@
         <v>600</v>
       </c>
       <c r="E60" s="3">
+        <v>600</v>
+      </c>
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2400</v>
       </c>
       <c r="M60" s="3">
         <v>2400</v>
       </c>
       <c r="N60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O60" s="3">
         <v>2300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2500</v>
-      </c>
-      <c r="T60" s="3">
-        <v>2400</v>
       </c>
       <c r="U60" s="3">
         <v>2400</v>
       </c>
       <c r="V60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W60" s="3">
         <v>2300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3949,23 +4091,23 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4431,11 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4286,67 +4443,70 @@
         <v>600</v>
       </c>
       <c r="E66" s="3">
-        <v>1500</v>
+        <v>600</v>
       </c>
       <c r="F66" s="3">
         <v>1500</v>
       </c>
       <c r="G66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H66" s="3">
         <v>6300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2400</v>
       </c>
       <c r="M66" s="3">
         <v>2400</v>
       </c>
       <c r="N66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2500</v>
-      </c>
-      <c r="T66" s="3">
-        <v>2400</v>
       </c>
       <c r="U66" s="3">
         <v>2400</v>
       </c>
       <c r="V66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W66" s="3">
         <v>2300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-25800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>67800</v>
+      </c>
+      <c r="E76" s="3">
         <v>68400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2200</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-2000</v>
       </c>
       <c r="M76" s="3">
         <v>-2000</v>
       </c>
       <c r="N76" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O76" s="3">
         <v>-1900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2600</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-2500</v>
       </c>
       <c r="Q76" s="3">
         <v>-2500</v>
       </c>
       <c r="R76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="S76" s="3">
         <v>-2400</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-2200</v>
       </c>
       <c r="T76" s="3">
         <v>-2200</v>
       </c>
       <c r="U76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="V76" s="3">
         <v>-2100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2000</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-1900</v>
       </c>
       <c r="X76" s="3">
         <v>-1900</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>-1900</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,129 +5239,135 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-200</v>
       </c>
       <c r="L81" s="3">
         <v>-200</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
@@ -5192,8 +5386,11 @@
       <c r="X81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5235,8 +5433,8 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -5253,8 +5451,8 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,35 +5839,38 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
@@ -5665,13 +5881,13 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,26 +5939,27 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>2900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3500</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5755,8 +5975,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,31 +6150,34 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>-100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -5965,8 +6194,8 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,62 +6532,65 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>32200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>16500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>9500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -6353,13 +6598,16 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,47 +6674,50 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E102" s="3">
         <v>27400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -6477,11 +6728,11 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -6489,9 +6740,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>
